--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H2">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I2">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J2">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>203.0691603333333</v>
+        <v>154.942487</v>
       </c>
       <c r="N2">
-        <v>609.207481</v>
+        <v>464.827461</v>
       </c>
       <c r="O2">
-        <v>0.9796789863919257</v>
+        <v>0.982851703624775</v>
       </c>
       <c r="P2">
-        <v>0.9796789863919257</v>
+        <v>0.9828517036247751</v>
       </c>
       <c r="Q2">
-        <v>1011.24143548773</v>
+        <v>335.111005365983</v>
       </c>
       <c r="R2">
-        <v>9101.172919389566</v>
+        <v>3015.999048293847</v>
       </c>
       <c r="S2">
-        <v>0.1265518501405503</v>
+        <v>0.06639250733771132</v>
       </c>
       <c r="T2">
-        <v>0.1265518501405503</v>
+        <v>0.06639250733771133</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H3">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I3">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J3">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.588474</v>
       </c>
       <c r="O3">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="P3">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="Q3">
-        <v>2.636754764334444</v>
+        <v>1.145188621155333</v>
       </c>
       <c r="R3">
-        <v>23.73079287901</v>
+        <v>10.306697590398</v>
       </c>
       <c r="S3">
-        <v>0.000329976781096292</v>
+        <v>0.0002268858459306122</v>
       </c>
       <c r="T3">
-        <v>0.0003299767810962921</v>
+        <v>0.0002268858459306122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H4">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I4">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J4">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.500179</v>
+        <v>1.771368666666667</v>
       </c>
       <c r="N4">
-        <v>10.500537</v>
+        <v>5.314106000000001</v>
       </c>
       <c r="O4">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078883</v>
       </c>
       <c r="P4">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078884</v>
       </c>
       <c r="Q4">
-        <v>17.43015054877833</v>
+        <v>3.831132094584667</v>
       </c>
       <c r="R4">
-        <v>156.871354939005</v>
+        <v>34.48018885126201</v>
       </c>
       <c r="S4">
-        <v>0.002181296891886499</v>
+        <v>0.0007590274912746082</v>
       </c>
       <c r="T4">
-        <v>0.002181296891886499</v>
+        <v>0.0007590274912746084</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H5">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I5">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J5">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1824963333333333</v>
+        <v>0.4024976666666666</v>
       </c>
       <c r="N5">
-        <v>0.547489</v>
+        <v>1.207493</v>
       </c>
       <c r="O5">
-        <v>0.0008804282371915408</v>
+        <v>0.002553176504700935</v>
       </c>
       <c r="P5">
-        <v>0.0008804282371915407</v>
+        <v>0.002553176504700936</v>
       </c>
       <c r="Q5">
-        <v>0.9087931116094445</v>
+        <v>0.8705255759456667</v>
       </c>
       <c r="R5">
-        <v>8.179138004485001</v>
+        <v>7.834730183511001</v>
       </c>
       <c r="S5">
-        <v>0.0001137309505258681</v>
+        <v>0.0001724693452711802</v>
       </c>
       <c r="T5">
-        <v>0.0001137309505258681</v>
+        <v>0.0001724693452711802</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>54.058512</v>
       </c>
       <c r="I6">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J6">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>203.0691603333333</v>
+        <v>154.942487</v>
       </c>
       <c r="N6">
-        <v>609.207481</v>
+        <v>464.827461</v>
       </c>
       <c r="O6">
-        <v>0.9796789863919257</v>
+        <v>0.982851703624775</v>
       </c>
       <c r="P6">
-        <v>0.9796789863919257</v>
+        <v>0.9828517036247751</v>
       </c>
       <c r="Q6">
-        <v>3659.205546903142</v>
+        <v>2791.986764266448</v>
       </c>
       <c r="R6">
-        <v>32932.84992212828</v>
+        <v>25127.88087839803</v>
       </c>
       <c r="S6">
-        <v>0.4579314254283994</v>
+        <v>0.5531510417895978</v>
       </c>
       <c r="T6">
-        <v>0.4579314254283994</v>
+        <v>0.553151041789598</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>54.058512</v>
       </c>
       <c r="I7">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J7">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.588474</v>
       </c>
       <c r="O7">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="P7">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="Q7">
         <v>9.541171198965333</v>
@@ -883,10 +883,10 @@
         <v>85.870540790688</v>
       </c>
       <c r="S7">
-        <v>0.001194030253669769</v>
+        <v>0.001890305805223693</v>
       </c>
       <c r="T7">
-        <v>0.00119403025366977</v>
+        <v>0.001890305805223693</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>54.058512</v>
       </c>
       <c r="I8">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J8">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.500179</v>
+        <v>1.771368666666667</v>
       </c>
       <c r="N8">
-        <v>10.500537</v>
+        <v>5.314106000000001</v>
       </c>
       <c r="O8">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078883</v>
       </c>
       <c r="P8">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078884</v>
       </c>
       <c r="Q8">
-        <v>63.071489491216</v>
+        <v>31.91918477447467</v>
       </c>
       <c r="R8">
-        <v>567.643405420944</v>
+        <v>287.2726629702721</v>
       </c>
       <c r="S8">
-        <v>0.007893084090629622</v>
+        <v>0.006323858886814678</v>
       </c>
       <c r="T8">
-        <v>0.007893084090629623</v>
+        <v>0.006323858886814679</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>54.058512</v>
       </c>
       <c r="I9">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J9">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1824963333333333</v>
+        <v>0.4024976666666666</v>
       </c>
       <c r="N9">
-        <v>0.547489</v>
+        <v>1.207493</v>
       </c>
       <c r="O9">
-        <v>0.0008804282371915408</v>
+        <v>0.002553176504700935</v>
       </c>
       <c r="P9">
-        <v>0.0008804282371915407</v>
+        <v>0.002553176504700936</v>
       </c>
       <c r="Q9">
-        <v>3.288493408485334</v>
+        <v>7.252808314490666</v>
       </c>
       <c r="R9">
-        <v>29.596440676368</v>
+        <v>65.275274830416</v>
       </c>
       <c r="S9">
-        <v>0.0004115386399471496</v>
+        <v>0.001436933199830134</v>
       </c>
       <c r="T9">
-        <v>0.0004115386399471496</v>
+        <v>0.001436933199830134</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H10">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I10">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J10">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>203.0691603333333</v>
+        <v>154.942487</v>
       </c>
       <c r="N10">
-        <v>609.207481</v>
+        <v>464.827461</v>
       </c>
       <c r="O10">
-        <v>0.9796789863919257</v>
+        <v>0.982851703624775</v>
       </c>
       <c r="P10">
-        <v>0.9796789863919257</v>
+        <v>0.9828517036247751</v>
       </c>
       <c r="Q10">
-        <v>1380.499689049059</v>
+        <v>720.5301318935091</v>
       </c>
       <c r="R10">
-        <v>12424.49720144153</v>
+        <v>6484.771187041581</v>
       </c>
       <c r="S10">
-        <v>0.1727626891429259</v>
+        <v>0.142752106922114</v>
       </c>
       <c r="T10">
-        <v>0.1727626891429259</v>
+        <v>0.142752106922114</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H11">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I11">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J11">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.588474</v>
       </c>
       <c r="O11">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="P11">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="Q11">
-        <v>3.599574744983333</v>
+        <v>2.462297253839334</v>
       </c>
       <c r="R11">
-        <v>32.39617270485</v>
+        <v>22.160675284554</v>
       </c>
       <c r="S11">
-        <v>0.0004504689263223608</v>
+        <v>0.0004878326461245758</v>
       </c>
       <c r="T11">
-        <v>0.0004504689263223609</v>
+        <v>0.0004878326461245758</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H12">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I12">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J12">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.500179</v>
+        <v>1.771368666666667</v>
       </c>
       <c r="N12">
-        <v>10.500537</v>
+        <v>5.314106000000001</v>
       </c>
       <c r="O12">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078883</v>
       </c>
       <c r="P12">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078884</v>
       </c>
       <c r="Q12">
-        <v>23.794829373325</v>
+        <v>8.237408110180668</v>
       </c>
       <c r="R12">
-        <v>214.153464359925</v>
+        <v>74.13667299162601</v>
       </c>
       <c r="S12">
-        <v>0.002977804879524766</v>
+        <v>0.001632003036729896</v>
       </c>
       <c r="T12">
-        <v>0.002977804879524766</v>
+        <v>0.001632003036729896</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H13">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I13">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J13">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1824963333333333</v>
+        <v>0.4024976666666666</v>
       </c>
       <c r="N13">
-        <v>0.547489</v>
+        <v>1.207493</v>
       </c>
       <c r="O13">
-        <v>0.0008804282371915408</v>
+        <v>0.002553176504700935</v>
       </c>
       <c r="P13">
-        <v>0.0008804282371915407</v>
+        <v>0.002553176504700936</v>
       </c>
       <c r="Q13">
-        <v>1.240642010858334</v>
+        <v>1.871737716783667</v>
       </c>
       <c r="R13">
-        <v>11.165778097725</v>
+        <v>16.845639451053</v>
       </c>
       <c r="S13">
-        <v>0.0001552601943773099</v>
+        <v>0.000370830435604802</v>
       </c>
       <c r="T13">
-        <v>0.0001552601943773099</v>
+        <v>0.0003708304356048021</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H14">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I14">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J14">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>203.0691603333333</v>
+        <v>154.942487</v>
       </c>
       <c r="N14">
-        <v>609.207481</v>
+        <v>464.827461</v>
       </c>
       <c r="O14">
-        <v>0.9796789863919257</v>
+        <v>0.982851703624775</v>
       </c>
       <c r="P14">
-        <v>0.9796789863919257</v>
+        <v>0.9828517036247751</v>
       </c>
       <c r="Q14">
-        <v>1777.401815096284</v>
+        <v>1113.239457376872</v>
       </c>
       <c r="R14">
-        <v>15996.61633586656</v>
+        <v>10019.15511639185</v>
       </c>
       <c r="S14">
-        <v>0.2224330216800501</v>
+        <v>0.2205560475753519</v>
       </c>
       <c r="T14">
-        <v>0.2224330216800501</v>
+        <v>0.2205560475753519</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H15">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I15">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J15">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.588474</v>
       </c>
       <c r="O15">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="P15">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="Q15">
-        <v>4.634474557336</v>
+        <v>3.804318983248</v>
       </c>
       <c r="R15">
-        <v>41.710271016024</v>
+        <v>34.238870849232</v>
       </c>
       <c r="S15">
-        <v>0.0005799815049877823</v>
+        <v>0.0007537152524562432</v>
       </c>
       <c r="T15">
-        <v>0.0005799815049877823</v>
+        <v>0.0007537152524562432</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H16">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I16">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J16">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.500179</v>
+        <v>1.771368666666667</v>
       </c>
       <c r="N16">
-        <v>10.500537</v>
+        <v>5.314106000000001</v>
       </c>
       <c r="O16">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078883</v>
       </c>
       <c r="P16">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078884</v>
       </c>
       <c r="Q16">
-        <v>30.635988731868</v>
+        <v>12.727028792912</v>
       </c>
       <c r="R16">
-        <v>275.723898586812</v>
+        <v>114.543259136208</v>
       </c>
       <c r="S16">
-        <v>0.003833942042765505</v>
+        <v>0.002521490905969652</v>
       </c>
       <c r="T16">
-        <v>0.003833942042765505</v>
+        <v>0.002521490905969652</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H17">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I17">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J17">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1824963333333333</v>
+        <v>0.4024976666666666</v>
       </c>
       <c r="N17">
-        <v>0.547489</v>
+        <v>1.207493</v>
       </c>
       <c r="O17">
-        <v>0.0008804282371915408</v>
+        <v>0.002553176504700935</v>
       </c>
       <c r="P17">
-        <v>0.0008804282371915407</v>
+        <v>0.002553176504700936</v>
       </c>
       <c r="Q17">
-        <v>1.597334196796</v>
+        <v>2.891887775336</v>
       </c>
       <c r="R17">
-        <v>14.376007771164</v>
+        <v>26.026989978024</v>
       </c>
       <c r="S17">
-        <v>0.000199898452341213</v>
+        <v>0.0005729435239948191</v>
       </c>
       <c r="T17">
-        <v>0.000199898452341213</v>
+        <v>0.0005729435239948192</v>
       </c>
     </row>
   </sheetData>
